--- a/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2012 (tasa de respuesta: 99,69%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
+          <t>Población según si ha consumido pastillas para dormir en las dos últimas semanas en 2023 (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A06-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11166</v>
+        <v>10781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0152070139219801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003259251029368993</v>
+        <v>0.003250741011823104</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04090024716556472</v>
+        <v>0.03948761842964303</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>6591</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2286</v>
+        <v>2300</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13836</v>
+        <v>13296</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02527033682031394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008763316601579581</v>
+        <v>0.008817149540036467</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05304250582811774</v>
+        <v>0.05097598531593404</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>10743</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5370</v>
+        <v>5011</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19854</v>
+        <v>18917</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02012395241836948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01005910894748602</v>
+        <v>0.009386496830438948</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03718974736218957</v>
+        <v>0.0354350782473636</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>268858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261844</v>
+        <v>262229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272120</v>
+        <v>272123</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9847929860780199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9590997528344352</v>
+        <v>0.9605123815703568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.996740748970631</v>
+        <v>0.9967492589881768</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -836,19 +836,19 @@
         <v>254247</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247002</v>
+        <v>247542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>258552</v>
+        <v>258538</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.974729663179686</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.946957494171883</v>
+        <v>0.9490240146840659</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9912366833984205</v>
+        <v>0.9911828504599636</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>506</v>
@@ -857,19 +857,19 @@
         <v>523105</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>513994</v>
+        <v>514931</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>528478</v>
+        <v>528837</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9798760475816305</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9628102526378107</v>
+        <v>0.9645649217526364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.989940891052514</v>
+        <v>0.9906135031695613</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6860</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2927</v>
+        <v>2857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13102</v>
+        <v>13737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01391254915607013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005935309329925679</v>
+        <v>0.005795189846101903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02657143513796468</v>
+        <v>0.02786083833575507</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -982,19 +982,19 @@
         <v>28783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20076</v>
+        <v>19739</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41634</v>
+        <v>40588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05711516455110249</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03983644377117129</v>
+        <v>0.03916919428109912</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08261464324042163</v>
+        <v>0.08053977033456931</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -1003,19 +1003,19 @@
         <v>35643</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25090</v>
+        <v>25559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48714</v>
+        <v>48127</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03574944948486337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02516504498645097</v>
+        <v>0.02563562808812372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04885945051075696</v>
+        <v>0.04827113750793405</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>486215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479973</v>
+        <v>479338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490148</v>
+        <v>490218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9860874508439299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9734285648620352</v>
+        <v>0.972139161664245</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9940646906700743</v>
+        <v>0.9942048101538981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>470</v>
@@ -1053,19 +1053,19 @@
         <v>475166</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462315</v>
+        <v>463361</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483873</v>
+        <v>484210</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9428848354488975</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9173853567595789</v>
+        <v>0.9194602296654311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9601635562288288</v>
+        <v>0.9608308057189009</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>928</v>
@@ -1074,19 +1074,19 @@
         <v>961381</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>948310</v>
+        <v>948897</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>971934</v>
+        <v>971465</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9642505505151366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9511405494892431</v>
+        <v>0.9517288624920658</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9748349550135491</v>
+        <v>0.9743643719118761</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4408</v>
+        <v>4124</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002734247759899383</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01382519757537943</v>
+        <v>0.01293263325387184</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9160</v>
+        <v>8225</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009105430968051331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002730352626847416</v>
+        <v>0.002726876234458726</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02730912858467788</v>
+        <v>0.02452263365719222</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1220,19 +1220,19 @@
         <v>3926</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9651</v>
+        <v>9536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006000499906899863</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001494300878046911</v>
+        <v>0.001479140149467694</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01475085423303685</v>
+        <v>0.01457548171088501</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>317974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>314438</v>
+        <v>314722</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1258,7 +1258,7 @@
         <v>0.9972657522401006</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9861748024246207</v>
+        <v>0.9870673667461277</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>332358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>326252</v>
+        <v>327187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334496</v>
+        <v>334497</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9908945690319487</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9726908714153221</v>
+        <v>0.9754773663428077</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972696473731526</v>
+        <v>0.9972731237655412</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -1291,19 +1291,19 @@
         <v>650332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644607</v>
+        <v>644722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653280</v>
+        <v>653290</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9939995000931001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9852491457669631</v>
+        <v>0.9854245182891146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9985056991219531</v>
+        <v>0.9985208598505323</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>4394</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11226</v>
+        <v>11212</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0122499952341294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002850851736022321</v>
+        <v>0.002855446187480326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03129969516865115</v>
+        <v>0.03126111955945761</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>11401</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6008</v>
+        <v>6236</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19990</v>
+        <v>20519</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03069212833254584</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01617356175879297</v>
+        <v>0.01678818618725851</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0538140664029071</v>
+        <v>0.05523831449143123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -1437,19 +1437,19 @@
         <v>15794</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9093</v>
+        <v>9090</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25462</v>
+        <v>25531</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02163252680000609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01245348950601393</v>
+        <v>0.01245026259965023</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03487309482793405</v>
+        <v>0.03496726233774875</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>354277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>347445</v>
+        <v>347459</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357648</v>
+        <v>357647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9877500047658706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9687003048313491</v>
+        <v>0.9687388804405425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9971491482639777</v>
+        <v>0.9971445538125197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>373</v>
@@ -1487,19 +1487,19 @@
         <v>360055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>351466</v>
+        <v>350937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>365448</v>
+        <v>365220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9693078716674541</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9461859335970929</v>
+        <v>0.9447616855085688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9838264382412071</v>
+        <v>0.9832118138127415</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>731</v>
@@ -1508,19 +1508,19 @@
         <v>714333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>704665</v>
+        <v>704596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>721034</v>
+        <v>721037</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.978367473199994</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9651269051720657</v>
+        <v>0.9650327376622514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9875465104939857</v>
+        <v>0.9875497374003498</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>4443</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1742</v>
+        <v>1713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10338</v>
+        <v>9228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02185301120546638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00856673074621616</v>
+        <v>0.008425246442926476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05084980814638018</v>
+        <v>0.04538768215105227</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1633,19 +1633,19 @@
         <v>11497</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6207</v>
+        <v>6491</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19252</v>
+        <v>19535</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05536023524196278</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02988855050205474</v>
+        <v>0.0312556696627479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09270648964702845</v>
+        <v>0.09406678753004984</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1654,19 +1654,19 @@
         <v>15939</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9644</v>
+        <v>9288</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24969</v>
+        <v>24933</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03878435858927025</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02346548923916258</v>
+        <v>0.02259995996571398</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06075608237890408</v>
+        <v>0.06066762324870711</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>198865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192970</v>
+        <v>194080</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201566</v>
+        <v>201595</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9781469887945337</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9491501918536198</v>
+        <v>0.9546123178489466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9914332692537839</v>
+        <v>0.9915747535570736</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>187</v>
@@ -1704,19 +1704,19 @@
         <v>196171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188416</v>
+        <v>188133</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201461</v>
+        <v>201177</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9446397647580372</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9072935103529715</v>
+        <v>0.9059332124699496</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9701114494979453</v>
+        <v>0.9687443303372519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>388</v>
@@ -1725,19 +1725,19 @@
         <v>395037</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>386007</v>
+        <v>386043</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>401332</v>
+        <v>401688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9612156414107298</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9392439176210958</v>
+        <v>0.9393323767512927</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9765345107608373</v>
+        <v>0.9774000400342857</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>2954</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8669</v>
+        <v>8013</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01090614504688911</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003525899653085398</v>
+        <v>0.00350125826213472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03201250287993491</v>
+        <v>0.02958928199962693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1850,19 +1850,19 @@
         <v>7014</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2974</v>
+        <v>2996</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15054</v>
+        <v>14970</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02521538095774021</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01069300519681511</v>
+        <v>0.01077032472724538</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05412262461813382</v>
+        <v>0.05382281162399619</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -1871,19 +1871,19 @@
         <v>9967</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5070</v>
+        <v>4870</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17916</v>
+        <v>17067</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01815633510655696</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009236627666877129</v>
+        <v>0.008870662647462207</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03263628568438846</v>
+        <v>0.03108923060085689</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>267857</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>262142</v>
+        <v>262798</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269856</v>
+        <v>269863</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9890938549531109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.967987497120065</v>
+        <v>0.9704107180003732</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964741003469146</v>
+        <v>0.9964987417378653</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>263</v>
@@ -1921,19 +1921,19 @@
         <v>271130</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>263090</v>
+        <v>263174</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275170</v>
+        <v>275148</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9747846190422598</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9458773753818662</v>
+        <v>0.9461771883760036</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.989306994803185</v>
+        <v>0.9892296752727546</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>526</v>
@@ -1942,19 +1942,19 @@
         <v>538988</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>531039</v>
+        <v>531888</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543885</v>
+        <v>544085</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.981843664893443</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9673637143156113</v>
+        <v>0.9689107693991429</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9907633723331228</v>
+        <v>0.9911293373525376</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>12411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6903</v>
+        <v>6891</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20551</v>
+        <v>20688</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02018028350745546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01122346445078335</v>
+        <v>0.01120466918160138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0334143586443523</v>
+        <v>0.03363741884962897</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2067,19 +2067,19 @@
         <v>24363</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15844</v>
+        <v>15582</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35145</v>
+        <v>34718</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03817289434345654</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02482557898456096</v>
+        <v>0.0244152502019807</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05506748112767418</v>
+        <v>0.05439758694839016</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -2088,19 +2088,19 @@
         <v>36774</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25369</v>
+        <v>26771</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50244</v>
+        <v>50126</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02934307070011509</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0202422578862629</v>
+        <v>0.02136127200196233</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04009078745166642</v>
+        <v>0.03999679882255384</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>602616</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>594476</v>
+        <v>594339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>608124</v>
+        <v>608136</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9798197164925445</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9665856413556476</v>
+        <v>0.9663625811503709</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9887765355492161</v>
+        <v>0.9887953308183981</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>597</v>
@@ -2138,19 +2138,19 @@
         <v>613856</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>603074</v>
+        <v>603501</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>622375</v>
+        <v>622637</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9618271056565435</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9449325188723259</v>
+        <v>0.9456024130516097</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9751744210154391</v>
+        <v>0.9755847497980187</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1182</v>
@@ -2159,19 +2159,19 @@
         <v>1216472</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1203002</v>
+        <v>1203120</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1227877</v>
+        <v>1226475</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9706569292998849</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9599092125483335</v>
+        <v>0.9600032011774456</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9797577421137371</v>
+        <v>0.9786387279980375</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>28839</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20395</v>
+        <v>19364</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40678</v>
+        <v>40718</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03882547782811956</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0274583064159654</v>
+        <v>0.02606946600071736</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05476527929269581</v>
+        <v>0.05481800947224853</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -2284,19 +2284,19 @@
         <v>47970</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35222</v>
+        <v>36750</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61761</v>
+        <v>63810</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06122439684108448</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0449543082658451</v>
+        <v>0.04690397038543181</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07882537557409584</v>
+        <v>0.08144105058346945</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -2305,19 +2305,19 @@
         <v>76809</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61668</v>
+        <v>61254</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>94879</v>
+        <v>97061</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05032383259678471</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0404036858962079</v>
+        <v>0.04013249568536566</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06216347410261404</v>
+        <v>0.06359269999336754</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>713938</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>702099</v>
+        <v>702059</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>722382</v>
+        <v>723413</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9611745221718805</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9452347207073042</v>
+        <v>0.9451819905277514</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9725416935840345</v>
+        <v>0.9739305339992826</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>700</v>
@@ -2355,19 +2355,19 @@
         <v>735541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>721750</v>
+        <v>719701</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>748289</v>
+        <v>746761</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9387756031589155</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9211746244259044</v>
+        <v>0.9185589494165306</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9550456917341552</v>
+        <v>0.9530960296145682</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1405</v>
@@ -2376,19 +2376,19 @@
         <v>1449479</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1431409</v>
+        <v>1429227</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1464620</v>
+        <v>1465034</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9496761674032153</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.937836525897386</v>
+        <v>0.9364073000066322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9595963141037924</v>
+        <v>0.9598675043146343</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>64924</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>49455</v>
+        <v>50388</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>81989</v>
+        <v>83489</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01982082335587168</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01509827393998887</v>
+        <v>0.01538313300508612</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02503087878076363</v>
+        <v>0.02548867461731896</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>136</v>
@@ -2501,19 +2501,19 @@
         <v>140672</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>118353</v>
+        <v>118885</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>167066</v>
+        <v>168979</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04162886767141676</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03502399801350245</v>
+        <v>0.03518141311012241</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04943968517215509</v>
+        <v>0.05000566053252023</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>203</v>
@@ -2522,19 +2522,19 @@
         <v>205596</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>177987</v>
+        <v>177602</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>235948</v>
+        <v>236220</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03089471638371498</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02674597882471792</v>
+        <v>0.02668818136083243</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03545576726012677</v>
+        <v>0.03549653458647305</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3210601</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3193536</v>
+        <v>3192036</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3226070</v>
+        <v>3225137</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9801791766441283</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9749691212192364</v>
+        <v>0.9745113253826811</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9849017260600111</v>
+        <v>0.9846168669949139</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3161</v>
@@ -2572,19 +2572,19 @@
         <v>3238525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3212131</v>
+        <v>3210218</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3260844</v>
+        <v>3260312</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9583711323285833</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.950560314827845</v>
+        <v>0.9499943394674798</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.964976001986498</v>
+        <v>0.9648185868898776</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6307</v>
@@ -2593,19 +2593,19 @@
         <v>6449126</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6418774</v>
+        <v>6418502</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6476735</v>
+        <v>6477120</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.969105283616285</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9645442327398741</v>
+        <v>0.9645034654135275</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9732540211752821</v>
+        <v>0.9733118186391676</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>6607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2576</v>
+        <v>2592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14189</v>
+        <v>13792</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02270139286961744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008851208716184925</v>
+        <v>0.008905351406894553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04875730163164087</v>
+        <v>0.04739352879411603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2962,19 +2962,19 @@
         <v>15937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9609</v>
+        <v>9474</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27024</v>
+        <v>25830</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05705551266647507</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03439853576344101</v>
+        <v>0.03391713301315496</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09674756487991233</v>
+        <v>0.09247183648242192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -2983,19 +2983,19 @@
         <v>22544</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14925</v>
+        <v>14799</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34963</v>
+        <v>34187</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03952640124413803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02616895253197048</v>
+        <v>0.02594667167459661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06130095629121234</v>
+        <v>0.05994132128244794</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>284411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276829</v>
+        <v>277226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288442</v>
+        <v>288426</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9772986071303825</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9512426983683592</v>
+        <v>0.9526064712058845</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9911487912838152</v>
+        <v>0.9910946485931055</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -3033,19 +3033,19 @@
         <v>263392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>252305</v>
+        <v>253499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269720</v>
+        <v>269855</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.942944487333525</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9032524351200877</v>
+        <v>0.9075281635175783</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9656014642365592</v>
+        <v>0.966082866986845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>507</v>
@@ -3054,19 +3054,19 @@
         <v>547803</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>535384</v>
+        <v>536160</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>555422</v>
+        <v>555548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.960473598755862</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9386990437087878</v>
+        <v>0.9400586787175523</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9738310474680295</v>
+        <v>0.9740533283254035</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>12138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5885</v>
+        <v>5874</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24847</v>
+        <v>25020</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02401067202972824</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0116404456651778</v>
+        <v>0.01162034305060792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0491511653936032</v>
+        <v>0.0494926809942748</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -3179,19 +3179,19 @@
         <v>39983</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27814</v>
+        <v>28674</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>56929</v>
+        <v>53926</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07648815635302406</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05320926950568131</v>
+        <v>0.05485338407369577</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1089075840048578</v>
+        <v>0.1031629402186701</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -3200,19 +3200,19 @@
         <v>52121</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37854</v>
+        <v>37965</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70073</v>
+        <v>70056</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05068840786037498</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03681379915132841</v>
+        <v>0.03692140387244797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06814683050395401</v>
+        <v>0.06813077380806674</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>493389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480680</v>
+        <v>480507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499642</v>
+        <v>499653</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9759893279702717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9508488346063965</v>
+        <v>0.9505073190057229</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9883595543348221</v>
+        <v>0.988379656949392</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>445</v>
@@ -3250,19 +3250,19 @@
         <v>482748</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>465802</v>
+        <v>468805</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>494917</v>
+        <v>494057</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9235118436469759</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8910924159951422</v>
+        <v>0.8968370597813293</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9467907304943188</v>
+        <v>0.945146615926304</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>909</v>
@@ -3271,19 +3271,19 @@
         <v>976137</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>958185</v>
+        <v>958202</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>990404</v>
+        <v>990293</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.949311592139625</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.931853169496046</v>
+        <v>0.9318692261919332</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9631862008486716</v>
+        <v>0.963078596127552</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>4979</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1952</v>
+        <v>1833</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10876</v>
+        <v>10300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01541026094265184</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006040209127147469</v>
+        <v>0.005673421781149962</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03365874381999061</v>
+        <v>0.03187618639446844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3396,19 +3396,19 @@
         <v>8112</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3925</v>
+        <v>3965</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15142</v>
+        <v>16207</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02378715725096598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01151104935055606</v>
+        <v>0.01162784054247783</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04440122161915209</v>
+        <v>0.04752652390826715</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3417,19 +3417,19 @@
         <v>13091</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7164</v>
+        <v>7018</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22549</v>
+        <v>22547</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01971162199821176</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01078650657820703</v>
+        <v>0.01056673246011569</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03395255450232629</v>
+        <v>0.03394906168872829</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>318137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312240</v>
+        <v>312816</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321164</v>
+        <v>321283</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9845897390573481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.966341256180009</v>
+        <v>0.9681238136055308</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9939597908728525</v>
+        <v>0.99432657821885</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>309</v>
@@ -3467,19 +3467,19 @@
         <v>332908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>325878</v>
+        <v>324813</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337095</v>
+        <v>337055</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.976212842749034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9555987783808476</v>
+        <v>0.9524734760917334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9884889506494439</v>
+        <v>0.9883721594575222</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -3488,19 +3488,19 @@
         <v>651045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>641587</v>
+        <v>641589</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>656972</v>
+        <v>657118</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9802883780017883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9660474454976737</v>
+        <v>0.966050938311272</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.989213493421793</v>
+        <v>0.9894332675398845</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>7184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3050</v>
+        <v>3061</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14447</v>
+        <v>13761</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01921008719805335</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008155381296664146</v>
+        <v>0.008184923172435311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03863128306477892</v>
+        <v>0.03679554855442572</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3613,19 +3613,19 @@
         <v>28868</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20275</v>
+        <v>19985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41445</v>
+        <v>40871</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07440826416512092</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05225858738509466</v>
+        <v>0.05151219699685478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1068242445214651</v>
+        <v>0.105345491478958</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -3634,19 +3634,19 @@
         <v>36053</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24670</v>
+        <v>25923</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48233</v>
+        <v>49705</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04731598880692896</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03237751519642335</v>
+        <v>0.03402128267737829</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06330177859655865</v>
+        <v>0.06523378569720023</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>366798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359535</v>
+        <v>360221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370932</v>
+        <v>370921</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807899128019466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9613687169352211</v>
+        <v>0.9632044514455748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9918446187033358</v>
+        <v>0.9918150768275648</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -3684,19 +3684,19 @@
         <v>359106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346529</v>
+        <v>347103</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367699</v>
+        <v>367989</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9255917358348791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.893175755478535</v>
+        <v>0.894654508521042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9477414126149054</v>
+        <v>0.9484878030031453</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -3705,19 +3705,19 @@
         <v>725903</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>713723</v>
+        <v>712251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>737286</v>
+        <v>736033</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.952684011193071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9366982214034413</v>
+        <v>0.9347662143027997</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9676224848035767</v>
+        <v>0.9659787173226216</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>5396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1865</v>
+        <v>1954</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11634</v>
+        <v>12125</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02537899791323291</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008771184570169075</v>
+        <v>0.009189242036879154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05471565399264682</v>
+        <v>0.05702829045397134</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -3830,19 +3830,19 @@
         <v>38191</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27796</v>
+        <v>27939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51539</v>
+        <v>50989</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1739169462363491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.126582371410407</v>
+        <v>0.1272334227377638</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2347036140407139</v>
+        <v>0.232199068703781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -3851,19 +3851,19 @@
         <v>43587</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32031</v>
+        <v>32421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56889</v>
+        <v>58320</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1008461761520023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07411050297211448</v>
+        <v>0.0750126813466398</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1316238967492318</v>
+        <v>0.134934723448275</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>207222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200984</v>
+        <v>200493</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210753</v>
+        <v>210664</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9746210020867671</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9452843460073537</v>
+        <v>0.9429717095460278</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912288154298315</v>
+        <v>0.9908107579631208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>176</v>
@@ -3901,19 +3901,19 @@
         <v>181400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>168052</v>
+        <v>168602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191795</v>
+        <v>191652</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8260830537636509</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7652963859592862</v>
+        <v>0.767800931296219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.873417628589593</v>
+        <v>0.8727665772622362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -3922,19 +3922,19 @@
         <v>388622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375320</v>
+        <v>373889</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400178</v>
+        <v>399788</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8991538238479977</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8683761032507681</v>
+        <v>0.8650652765517249</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9258894970278855</v>
+        <v>0.9249873186533603</v>
       </c>
     </row>
     <row r="18">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6210</v>
+        <v>6109</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007286440263137278</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02266424007844333</v>
+        <v>0.02229595981938192</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4047,19 +4047,19 @@
         <v>10080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4983</v>
+        <v>4828</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17977</v>
+        <v>18604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03611117701827993</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01785268184312335</v>
+        <v>0.01729620853136643</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06440074885757352</v>
+        <v>0.06664815104045987</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -4068,19 +4068,19 @@
         <v>12076</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6123</v>
+        <v>6563</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21432</v>
+        <v>21619</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02183324354727891</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01107001160486351</v>
+        <v>0.01186624802606027</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03874797779432289</v>
+        <v>0.03908460453533528</v>
       </c>
     </row>
     <row r="20">
@@ -4097,7 +4097,7 @@
         <v>271985</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>267771</v>
+        <v>267872</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -4106,7 +4106,7 @@
         <v>0.9927135597368627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.977335759921557</v>
+        <v>0.9777040401806182</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4118,19 +4118,19 @@
         <v>269060</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261163</v>
+        <v>260536</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>274157</v>
+        <v>274312</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9638888229817201</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9355992511424265</v>
+        <v>0.9333518489595402</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9821473181568767</v>
+        <v>0.9827037914686335</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>518</v>
@@ -4139,19 +4139,19 @@
         <v>541045</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>531689</v>
+        <v>531502</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>546998</v>
+        <v>546558</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9781667564527211</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9612520222056774</v>
+        <v>0.9609153954646649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9889299883951366</v>
+        <v>0.9881337519739402</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>8023</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3040</v>
+        <v>3120</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16341</v>
+        <v>16932</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01212326012637594</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004593876999458763</v>
+        <v>0.004715069899727478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0246932360264171</v>
+        <v>0.0255860725892477</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -4264,19 +4264,19 @@
         <v>18409</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10780</v>
+        <v>11236</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28769</v>
+        <v>29608</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02653148662527217</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01553710419487371</v>
+        <v>0.01619433633420174</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04146254705082347</v>
+        <v>0.04267256470215107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -4285,19 +4285,19 @@
         <v>26432</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17567</v>
+        <v>17059</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39094</v>
+        <v>40643</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01949794740027729</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01295863776119951</v>
+        <v>0.01258391869758319</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02883891841136551</v>
+        <v>0.02998105414851852</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>653733</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>645415</v>
+        <v>644824</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>658716</v>
+        <v>658636</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.987876739873624</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9753067639735834</v>
+        <v>0.9744139274107528</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9954061230005412</v>
+        <v>0.9952849301002726</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>619</v>
@@ -4335,19 +4335,19 @@
         <v>675444</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>665084</v>
+        <v>664245</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>683073</v>
+        <v>682617</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9734685133747278</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9585374529491766</v>
+        <v>0.9573274352978496</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.984462895805127</v>
+        <v>0.9838056636657984</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1229</v>
@@ -4356,19 +4356,19 @@
         <v>1329177</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1316515</v>
+        <v>1314966</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1338042</v>
+        <v>1338550</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9805020525997227</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9711610815886346</v>
+        <v>0.9700189458514817</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9870413622388005</v>
+        <v>0.9874160813024169</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>23699</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14190</v>
+        <v>14747</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36160</v>
+        <v>36572</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03054185508675304</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0182876132415406</v>
+        <v>0.01900576569732957</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04660107625807949</v>
+        <v>0.04713297212068328</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -4481,19 +4481,19 @@
         <v>63379</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47531</v>
+        <v>49404</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80525</v>
+        <v>81184</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07714811528835963</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05785776324318049</v>
+        <v>0.06013776715394631</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09801930074738679</v>
+        <v>0.09882209628589347</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -4502,19 +4502,19 @@
         <v>87077</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>69862</v>
+        <v>69020</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>107209</v>
+        <v>106357</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0545098605722197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04373305205724804</v>
+        <v>0.0432060951542697</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06711202572927991</v>
+        <v>0.06657845093267366</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>752243</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>739782</v>
+        <v>739370</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>761752</v>
+        <v>761195</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.969458144913247</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.953398923741921</v>
+        <v>0.9528670278793171</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9817123867584594</v>
+        <v>0.9809942343026706</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>698</v>
@@ -4552,19 +4552,19 @@
         <v>758141</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>740995</v>
+        <v>740336</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>773989</v>
+        <v>772116</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9228518847116404</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9019806992526133</v>
+        <v>0.901177903714106</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9421422367568199</v>
+        <v>0.9398622328460536</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1392</v>
@@ -4573,19 +4573,19 @@
         <v>1510386</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1490254</v>
+        <v>1491106</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1527601</v>
+        <v>1528443</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9454901394277803</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9328879742707201</v>
+        <v>0.9334215490673264</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9562669479427522</v>
+        <v>0.9567939048457308</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>70022</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>53312</v>
+        <v>52727</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>90027</v>
+        <v>89844</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02048655542797477</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0155976375500699</v>
+        <v>0.01542652395770602</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02633954213424029</v>
+        <v>0.02628605011142104</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>205</v>
@@ -4698,19 +4698,19 @@
         <v>222959</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>192504</v>
+        <v>193161</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>253964</v>
+        <v>252715</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06289104615634736</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05430055052115479</v>
+        <v>0.05448585122677276</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07163675623897342</v>
+        <v>0.07128453491620509</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>265</v>
@@ -4719,19 +4719,19 @@
         <v>292981</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>259519</v>
+        <v>258574</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>328918</v>
+        <v>333981</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04207617140576082</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03727061587045739</v>
+        <v>0.03713493409252261</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04723736166820097</v>
+        <v>0.04796434267501914</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3347919</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3327914</v>
+        <v>3328097</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3364629</v>
+        <v>3365214</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9795134445720253</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9736604578657597</v>
+        <v>0.973713949888579</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9844023624499301</v>
+        <v>0.9845734760422939</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3081</v>
@@ -4769,19 +4769,19 @@
         <v>3322200</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3291195</v>
+        <v>3292444</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3352655</v>
+        <v>3351998</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9371089538436527</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9283632437610266</v>
+        <v>0.928715465083795</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9456994494788453</v>
+        <v>0.9455141487732274</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6222</v>
@@ -4790,19 +4790,19 @@
         <v>6670119</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6634182</v>
+        <v>6629119</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6703581</v>
+        <v>6704526</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9579238285942392</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.952762638331799</v>
+        <v>0.952035657324981</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9627293841295427</v>
+        <v>0.9628650659074777</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>6833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2570</v>
+        <v>2352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14579</v>
+        <v>14409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02325939883767318</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008748709744636336</v>
+        <v>0.008006386811981892</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04962806998161193</v>
+        <v>0.04904950435025358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -5159,19 +5159,19 @@
         <v>25319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16234</v>
+        <v>16427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37087</v>
+        <v>36430</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08769905841715199</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05623090841316001</v>
+        <v>0.05689758883791125</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1284611800805237</v>
+        <v>0.1261834435638568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -5180,19 +5180,19 @@
         <v>32152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22134</v>
+        <v>22159</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46168</v>
+        <v>46034</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05519943806478907</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03800112413163335</v>
+        <v>0.03804363705125679</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07926386819714414</v>
+        <v>0.07903236111952976</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>286928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279182</v>
+        <v>279352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291191</v>
+        <v>291409</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9767406011623269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9503719300183882</v>
+        <v>0.9509504956497465</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9912512902553637</v>
+        <v>0.9919936131880182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -5230,19 +5230,19 @@
         <v>263384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251616</v>
+        <v>252273</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272469</v>
+        <v>272276</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.912300941582848</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8715388199194756</v>
+        <v>0.8738165564361428</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9437690915868399</v>
+        <v>0.9431024111620887</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>514</v>
@@ -5251,19 +5251,19 @@
         <v>550312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>536296</v>
+        <v>536430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>560330</v>
+        <v>560305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9448005619352109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.920736131802856</v>
+        <v>0.9209676388804708</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9619988758683669</v>
+        <v>0.9619563629487435</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>13496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7554</v>
+        <v>7264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21780</v>
+        <v>21992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02685298718258919</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01502993594866312</v>
+        <v>0.01445400241251884</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0433363595693003</v>
+        <v>0.04375809825840889</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -5376,19 +5376,19 @@
         <v>36046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25186</v>
+        <v>25120</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49855</v>
+        <v>49408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.068910498360138</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04814874108411066</v>
+        <v>0.04802244840975554</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09530967182059118</v>
+        <v>0.09445529613001846</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -5397,19 +5397,19 @@
         <v>49542</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35667</v>
+        <v>36213</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64909</v>
+        <v>66024</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04830222462118869</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03477506536009823</v>
+        <v>0.0353072602316531</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06328526893803002</v>
+        <v>0.06437183889009421</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>489079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480795</v>
+        <v>480583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495021</v>
+        <v>495311</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9731470128174108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9566636404306996</v>
+        <v>0.9562419017415914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9849700640513368</v>
+        <v>0.9855459975874813</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -5447,19 +5447,19 @@
         <v>487038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473229</v>
+        <v>473676</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497898</v>
+        <v>497964</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.931089501639862</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9046903281794088</v>
+        <v>0.9055447038699815</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9518512589158891</v>
+        <v>0.9519775515902446</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>915</v>
@@ -5468,19 +5468,19 @@
         <v>976117</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>960750</v>
+        <v>959635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>989992</v>
+        <v>989446</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9516977753788113</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9367147310619698</v>
+        <v>0.9356281611099057</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9652249346399013</v>
+        <v>0.9646927397683469</v>
       </c>
     </row>
     <row r="9">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7711</v>
+        <v>7057</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006863311382226703</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02420429596937891</v>
+        <v>0.02215147701989031</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5593,19 +5593,19 @@
         <v>15495</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8843</v>
+        <v>9059</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25266</v>
+        <v>24652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0460733489696633</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02629571980983427</v>
+        <v>0.02693607696052314</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07512679479107086</v>
+        <v>0.07330268872602277</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -5614,19 +5614,19 @@
         <v>17681</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10911</v>
+        <v>10547</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27883</v>
+        <v>28328</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02699953394923293</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01666129078620053</v>
+        <v>0.0161046898599639</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04257698692366669</v>
+        <v>0.04325763170213383</v>
       </c>
     </row>
     <row r="11">
@@ -5643,7 +5643,7 @@
         <v>316379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310854</v>
+        <v>311508</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -5652,7 +5652,7 @@
         <v>0.9931366886177733</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9757957040306212</v>
+        <v>0.9778485229801098</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5664,19 +5664,19 @@
         <v>320814</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>311043</v>
+        <v>311657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327466</v>
+        <v>327250</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9539266510303367</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9248732052089288</v>
+        <v>0.9266973112739763</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9737042801901655</v>
+        <v>0.9730639230394765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -5685,19 +5685,19 @@
         <v>637193</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626991</v>
+        <v>626546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643963</v>
+        <v>644327</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9730004660507671</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9574230130763333</v>
+        <v>0.9567423682978662</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9833387092137991</v>
+        <v>0.9838953101400362</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>8729</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4155</v>
+        <v>4115</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16601</v>
+        <v>16979</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02359482386253226</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01123068604666016</v>
+        <v>0.01112198698188309</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04487269082629665</v>
+        <v>0.0458933247189954</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -5810,19 +5810,19 @@
         <v>36979</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26319</v>
+        <v>26685</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49591</v>
+        <v>50387</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09548406660624752</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06795685401080835</v>
+        <v>0.06890331004257887</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1280486696022446</v>
+        <v>0.1301047507825202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -5831,19 +5831,19 @@
         <v>45709</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33611</v>
+        <v>33588</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61631</v>
+        <v>60582</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06036153498080925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04438638275578701</v>
+        <v>0.04435493814500861</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08138857089874596</v>
+        <v>0.08000232588165383</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>361235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>353363</v>
+        <v>352985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365809</v>
+        <v>365849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9764051761374677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9551273091737034</v>
+        <v>0.9541066752810047</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9887693139533402</v>
+        <v>0.9888780130181171</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>324</v>
@@ -5881,19 +5881,19 @@
         <v>350304</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337692</v>
+        <v>336896</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>360964</v>
+        <v>360598</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9045159333937525</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8719513303977553</v>
+        <v>0.8698952492174796</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9320431459891916</v>
+        <v>0.9310966899574211</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>669</v>
@@ -5902,19 +5902,19 @@
         <v>711538</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>695616</v>
+        <v>696665</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>723636</v>
+        <v>723659</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9396384650191908</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.918611429101254</v>
+        <v>0.9199976741183461</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.955613617244213</v>
+        <v>0.9556450618549913</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>7535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3001</v>
+        <v>3676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14825</v>
+        <v>15985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03567383403577915</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01420982324134696</v>
+        <v>0.01740209379623989</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0701870484291502</v>
+        <v>0.07567773265315197</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -6027,19 +6027,19 @@
         <v>19215</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11907</v>
+        <v>11892</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28350</v>
+        <v>28299</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08790373263797457</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05447173585999248</v>
+        <v>0.05440550873357414</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1296949912706532</v>
+        <v>0.129463487037099</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -6048,19 +6048,19 @@
         <v>26750</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17608</v>
+        <v>17242</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38088</v>
+        <v>37623</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0622363384377665</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04096598398340053</v>
+        <v>0.04011614872107433</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08861571322149421</v>
+        <v>0.08753545134298431</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>203686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196396</v>
+        <v>195236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208220</v>
+        <v>207545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9643261659642208</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9298129515708493</v>
+        <v>0.924322267346848</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9857901767586525</v>
+        <v>0.98259790620376</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -6098,19 +6098,19 @@
         <v>199372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190237</v>
+        <v>190288</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206680</v>
+        <v>206695</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9120962673620254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.870305008729348</v>
+        <v>0.870536512962901</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9455282641400088</v>
+        <v>0.9455944912664259</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>409</v>
@@ -6119,19 +6119,19 @@
         <v>403058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391720</v>
+        <v>392185</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412200</v>
+        <v>412566</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9377636615622335</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9113842867785065</v>
+        <v>0.912464548657016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9590340160165997</v>
+        <v>0.9598838512789258</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>10250</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5616</v>
+        <v>4987</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18972</v>
+        <v>17442</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03895531718067619</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02134386140399754</v>
+        <v>0.01895384562246578</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0721015818927711</v>
+        <v>0.06628845356261645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -6244,19 +6244,19 @@
         <v>30300</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20593</v>
+        <v>20299</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42047</v>
+        <v>42833</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1109439361372927</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07540210230954064</v>
+        <v>0.07432221430468416</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1539534786212887</v>
+        <v>0.1568323047870918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -6265,19 +6265,19 @@
         <v>40550</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29039</v>
+        <v>29611</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52696</v>
+        <v>53373</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07562032732868582</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05415252846115377</v>
+        <v>0.05521976456304104</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09827053406176912</v>
+        <v>0.09953319936071893</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>252873</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244151</v>
+        <v>245681</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>257507</v>
+        <v>258136</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9610446828193239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9278984181072285</v>
+        <v>0.9337115464373836</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9786561385960023</v>
+        <v>0.9810461543775342</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>235</v>
@@ -6315,19 +6315,19 @@
         <v>242815</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>231068</v>
+        <v>230282</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>252522</v>
+        <v>252816</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8890560638627073</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8460465213787109</v>
+        <v>0.843167695212908</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9245978976904593</v>
+        <v>0.9256777856953157</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>483</v>
@@ -6336,19 +6336,19 @@
         <v>495688</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>483542</v>
+        <v>482865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>507199</v>
+        <v>506627</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9243796726713142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9017294659382304</v>
+        <v>0.9004668006392811</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9458474715388457</v>
+        <v>0.9447802354369589</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>32422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21836</v>
+        <v>21287</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45024</v>
+        <v>44674</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04938183239545304</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0332577212777479</v>
+        <v>0.03242254179670025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06857551216627084</v>
+        <v>0.06804220900719304</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -6461,19 +6461,19 @@
         <v>57715</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44676</v>
+        <v>42574</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76046</v>
+        <v>73978</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08348888175914146</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06462624752551725</v>
+        <v>0.06158536665558827</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1100046739673841</v>
+        <v>0.1070139714334521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -6482,19 +6482,19 @@
         <v>90137</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72963</v>
+        <v>73034</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113476</v>
+        <v>110575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06687484990914232</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05413253149098934</v>
+        <v>0.0541855422457446</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08419045658869759</v>
+        <v>0.08203760515702248</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>624136</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>611534</v>
+        <v>611884</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>634722</v>
+        <v>635271</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.950618167604547</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9314244878337292</v>
+        <v>0.931957790992807</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9667422787222522</v>
+        <v>0.9675774582032995</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>595</v>
@@ -6532,19 +6532,19 @@
         <v>633579</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>615248</v>
+        <v>617316</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>646618</v>
+        <v>648720</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9165111182408585</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8899953260326159</v>
+        <v>0.8929860285665479</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9353737524744827</v>
+        <v>0.9384146333444118</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1145</v>
@@ -6553,19 +6553,19 @@
         <v>1257715</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1234376</v>
+        <v>1237277</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1274889</v>
+        <v>1274818</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9331251500908577</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9158095434113019</v>
+        <v>0.9179623948429775</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9458674685090106</v>
+        <v>0.9458144577542553</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>8573</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3799</v>
+        <v>3865</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16452</v>
+        <v>17203</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01101101076476875</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004878882904891846</v>
+        <v>0.00496418128379446</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02113028837035766</v>
+        <v>0.02209527123668875</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -6678,19 +6678,19 @@
         <v>45412</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32011</v>
+        <v>33609</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60972</v>
+        <v>61230</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05496665017571049</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03874651078029424</v>
+        <v>0.04068075497692777</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07380078897738335</v>
+        <v>0.07411353549874219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -6699,19 +6699,19 @@
         <v>53985</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40800</v>
+        <v>40508</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70760</v>
+        <v>71783</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03364051620816629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02542469558659712</v>
+        <v>0.02524275743864116</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04409385886567269</v>
+        <v>0.04473159412574945</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>770010</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>762131</v>
+        <v>761380</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>774784</v>
+        <v>774718</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9889889892352313</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9788697116296422</v>
+        <v>0.9779047287633112</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9951211170951082</v>
+        <v>0.9950358187162056</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>717</v>
@@ -6749,19 +6749,19 @@
         <v>780755</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>765195</v>
+        <v>764937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>794156</v>
+        <v>792558</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9450333498242895</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9261992110226167</v>
+        <v>0.925886464501258</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9612534892197058</v>
+        <v>0.9593192450230723</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1459</v>
@@ -6770,19 +6770,19 @@
         <v>1550765</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1533990</v>
+        <v>1532967</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1563950</v>
+        <v>1564242</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9663594837918337</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9559061411343269</v>
+        <v>0.9552684058742508</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9745753044134027</v>
+        <v>0.974757242561359</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>90024</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>70498</v>
+        <v>71484</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>112129</v>
+        <v>110642</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02652175419494341</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02076918078736823</v>
+        <v>0.02105974645087524</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03303403484778396</v>
+        <v>0.03259583594031968</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>239</v>
@@ -6895,19 +6895,19 @@
         <v>266481</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>235552</v>
+        <v>236289</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>301596</v>
+        <v>302391</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07518073133574005</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06645476528252289</v>
+        <v>0.06666273048603999</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08508730626791236</v>
+        <v>0.08531159529380468</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>325</v>
@@ -6916,19 +6916,19 @@
         <v>356505</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>320586</v>
+        <v>318924</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>396340</v>
+        <v>394572</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05137785220015152</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04620125524850467</v>
+        <v>0.04596183005750792</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05711860189978623</v>
+        <v>0.05686388005200057</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3304326</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3282221</v>
+        <v>3283708</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3323852</v>
+        <v>3322866</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9734782458050566</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9669659651522162</v>
+        <v>0.9674041640596804</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9792308192126321</v>
+        <v>0.9789402535491248</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3099</v>
@@ -6966,19 +6966,19 @@
         <v>3278061</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3242946</v>
+        <v>3242151</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3308990</v>
+        <v>3308253</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9248192686642599</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9149126937320875</v>
+        <v>0.9146884047061952</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9335452347174771</v>
+        <v>0.93333726951396</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6244</v>
@@ -6987,19 +6987,19 @@
         <v>6582387</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6542552</v>
+        <v>6544320</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6618306</v>
+        <v>6619968</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9486221477998484</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9428813981002135</v>
+        <v>0.9431361199479994</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9537987447514951</v>
+        <v>0.9540381699424921</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>11735</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7152</v>
+        <v>7180</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18515</v>
+        <v>19181</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03680490917057392</v>
+        <v>0.03680490917057393</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02243067366056636</v>
+        <v>0.02251885463780753</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05806943783490164</v>
+        <v>0.06015698993730637</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -7356,19 +7356,19 @@
         <v>19576</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13767</v>
+        <v>13514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26174</v>
+        <v>26017</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06193783077461639</v>
+        <v>0.06193783077461638</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.043558439509516</v>
+        <v>0.04275869244532137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08281361048937894</v>
+        <v>0.08231723042736251</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -7377,19 +7377,19 @@
         <v>31311</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23510</v>
+        <v>23356</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40399</v>
+        <v>40472</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04931625464850264</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03702846183167352</v>
+        <v>0.03678689787184413</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06363064004666727</v>
+        <v>0.06374490898530835</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>307110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>300330</v>
+        <v>299664</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>311693</v>
+        <v>311665</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.963195090829426</v>
+        <v>0.9631950908294263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9419305621650985</v>
+        <v>0.939843010062694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9775693263394339</v>
+        <v>0.9774811453621927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>499</v>
@@ -7427,19 +7427,19 @@
         <v>296485</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>289887</v>
+        <v>290044</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302294</v>
+        <v>302547</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9380621692253835</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.917186389510621</v>
+        <v>0.9176827695726375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9564415604904837</v>
+        <v>0.9572413075546786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>815</v>
@@ -7448,19 +7448,19 @@
         <v>603595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>594507</v>
+        <v>594434</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>611396</v>
+        <v>611550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9506837453514974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9363693599533333</v>
+        <v>0.9362550910146914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9629715381683265</v>
+        <v>0.9632131021281559</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>27250</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17393</v>
+        <v>18535</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39548</v>
+        <v>39678</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05144790098609966</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0328388821708509</v>
+        <v>0.03499418639967636</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07466651791043794</v>
+        <v>0.07491276740894601</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -7573,19 +7573,19 @@
         <v>59807</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48682</v>
+        <v>48373</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71918</v>
+        <v>72247</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1096943013607913</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08928945447464451</v>
+        <v>0.08872266337361642</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1319086883789993</v>
+        <v>0.1325120866480225</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -7594,19 +7594,19 @@
         <v>87057</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70322</v>
+        <v>72513</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103483</v>
+        <v>104655</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08099252528632953</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06542353927697873</v>
+        <v>0.06746188642226671</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09627457763898981</v>
+        <v>0.09736496486371418</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>502410</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490112</v>
+        <v>489982</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>512267</v>
+        <v>511125</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9485520990139004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9253334820895628</v>
+        <v>0.9250872325910536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9671611178291493</v>
+        <v>0.9650058136003234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>625</v>
@@ -7644,19 +7644,19 @@
         <v>485406</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473295</v>
+        <v>472966</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496531</v>
+        <v>496840</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8903056986392088</v>
+        <v>0.8903056986392087</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8680913116210007</v>
+        <v>0.8674879133519776</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9107105455253554</v>
+        <v>0.9112773366263837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>983</v>
@@ -7665,19 +7665,19 @@
         <v>987816</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>971390</v>
+        <v>970218</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1004551</v>
+        <v>1002360</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9190074747136704</v>
+        <v>0.9190074747136705</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9037254223610102</v>
+        <v>0.9026350351362858</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.934576460723021</v>
+        <v>0.9325381135777333</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>19798</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12598</v>
+        <v>12613</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28049</v>
+        <v>28622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06275163059655005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0399302924987599</v>
+        <v>0.03997849445845407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0889050120806901</v>
+        <v>0.09072061529013813</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -7790,19 +7790,19 @@
         <v>38330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29325</v>
+        <v>30348</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47348</v>
+        <v>48314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1075521082170538</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08228672812745652</v>
+        <v>0.08515676559155441</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1328585825520077</v>
+        <v>0.1355695225979969</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -7811,19 +7811,19 @@
         <v>58128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47648</v>
+        <v>47061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71703</v>
+        <v>71471</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0865148915417245</v>
+        <v>0.08651489154172451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07091784832155408</v>
+        <v>0.07004368711521081</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1067203265153695</v>
+        <v>0.1063745516172357</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>295700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>287449</v>
+        <v>286876</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>302900</v>
+        <v>302885</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9372483694034499</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9110949879193104</v>
+        <v>0.909279384709862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9600697075012402</v>
+        <v>0.9600215055415459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>470</v>
@@ -7861,19 +7861,19 @@
         <v>318051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>309033</v>
+        <v>308067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>327056</v>
+        <v>326033</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8924478917829463</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8671414174479922</v>
+        <v>0.8644304774020033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9177132718725434</v>
+        <v>0.9148432344084456</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>802</v>
@@ -7882,19 +7882,19 @@
         <v>613752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>600177</v>
+        <v>600409</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>624232</v>
+        <v>624819</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9134851084582754</v>
+        <v>0.9134851084582756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8932796734846304</v>
+        <v>0.8936254483827643</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9290821516784459</v>
+        <v>0.9299563128847892</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>20803</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13047</v>
+        <v>12887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33547</v>
+        <v>33144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05575048356999958</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03496604427446432</v>
+        <v>0.03453585257020599</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08990438442778255</v>
+        <v>0.08882418199423787</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -8007,19 +8007,19 @@
         <v>38142</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28665</v>
+        <v>28593</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51586</v>
+        <v>51746</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09046396728244201</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06798560360149235</v>
+        <v>0.06781520873541755</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1223485992089453</v>
+        <v>0.1227295413860492</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -8028,19 +8028,19 @@
         <v>58945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46405</v>
+        <v>45616</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77352</v>
+        <v>77274</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07416606663809992</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05838789544009366</v>
+        <v>0.05739544700583037</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09732595631844246</v>
+        <v>0.09722694423010099</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>352342</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339598</v>
+        <v>340001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360098</v>
+        <v>360258</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9442495164300005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9100956155722174</v>
+        <v>0.9111758180057622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9650339557255356</v>
+        <v>0.9654641474297939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>534</v>
@@ -8078,19 +8078,19 @@
         <v>383488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>370044</v>
+        <v>369884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>392965</v>
+        <v>393037</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9095360327175581</v>
+        <v>0.909536032717558</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8776514007910549</v>
+        <v>0.8772704586139504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9320143963985077</v>
+        <v>0.932184791264582</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>805</v>
@@ -8099,19 +8099,19 @@
         <v>735830</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>717423</v>
+        <v>717501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>748370</v>
+        <v>749159</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9258339333618999</v>
+        <v>0.9258339333619001</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9026740436815577</v>
+        <v>0.9027730557698991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9416121045599064</v>
+        <v>0.9426045529941697</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>6858</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3667</v>
+        <v>3690</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11537</v>
+        <v>11776</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03334356255034308</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0178319098714409</v>
+        <v>0.01794236524519057</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05609556045945722</v>
+        <v>0.0572567208088527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -8224,19 +8224,19 @@
         <v>23738</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18170</v>
+        <v>18420</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29862</v>
+        <v>29629</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.104474979081707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07996902297166283</v>
+        <v>0.08106892801964259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1314243521260227</v>
+        <v>0.1304012389082159</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -8245,19 +8245,19 @@
         <v>30596</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23938</v>
+        <v>23980</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38146</v>
+        <v>38287</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07067983357262611</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05529925276395779</v>
+        <v>0.05539710595180559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08812275180501569</v>
+        <v>0.08844792911175371</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>198807</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194128</v>
+        <v>193889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201998</v>
+        <v>201975</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9666564374496568</v>
+        <v>0.966656437449657</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9439044395405428</v>
+        <v>0.942743279191147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9821680901285591</v>
+        <v>0.9820576347548094</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>432</v>
@@ -8295,19 +8295,19 @@
         <v>203477</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>197353</v>
+        <v>197586</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>209045</v>
+        <v>208795</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8955250209182932</v>
+        <v>0.895525020918293</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8685756478739773</v>
+        <v>0.8695987610917841</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9200309770283371</v>
+        <v>0.9189310719803571</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>699</v>
@@ -8316,19 +8316,19 @@
         <v>402283</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>394733</v>
+        <v>394592</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408941</v>
+        <v>408899</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9293201664273739</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9118772481949844</v>
+        <v>0.9115520708882463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9447007472360421</v>
+        <v>0.9446028940481944</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>24353</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17611</v>
+        <v>18508</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31967</v>
+        <v>33058</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08996043983819878</v>
+        <v>0.08996043983819876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06505380566080768</v>
+        <v>0.06836968571866348</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1180862550723736</v>
+        <v>0.1221155797797712</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>102</v>
@@ -8441,19 +8441,19 @@
         <v>43483</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36162</v>
+        <v>36075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52687</v>
+        <v>52529</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1648637666440139</v>
+        <v>0.1648637666440138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1371075798250398</v>
+        <v>0.1367755639137531</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1997599040358392</v>
+        <v>0.1991631951503129</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>149</v>
@@ -8462,19 +8462,19 @@
         <v>67836</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57719</v>
+        <v>57303</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78971</v>
+        <v>79263</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1269246189700082</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1079948366663378</v>
+        <v>0.1072171295554185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1477597631835922</v>
+        <v>0.1483055319676393</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>246354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238740</v>
+        <v>237649</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253096</v>
+        <v>252199</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9100395601618012</v>
+        <v>0.9100395601618013</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8819137449276264</v>
+        <v>0.8778844202202287</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.934946194339192</v>
+        <v>0.9316303142813365</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>358</v>
@@ -8512,19 +8512,19 @@
         <v>220267</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211063</v>
+        <v>211221</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>227588</v>
+        <v>227675</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8351362333559863</v>
+        <v>0.835136233355986</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8002400959641609</v>
+        <v>0.8008368048496871</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8628924201749602</v>
+        <v>0.8632244360862469</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>682</v>
@@ -8533,19 +8533,19 @@
         <v>466621</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>455486</v>
+        <v>455194</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>476738</v>
+        <v>477154</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8730753810299918</v>
+        <v>0.8730753810299917</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8522402368164078</v>
+        <v>0.8516944680323605</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.892005163333662</v>
+        <v>0.8927828704445814</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>39884</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27284</v>
+        <v>28680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55016</v>
+        <v>54990</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05541897837471121</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03791131047265991</v>
+        <v>0.03985074127770249</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07644382717474178</v>
+        <v>0.07640843206908537</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -8658,19 +8658,19 @@
         <v>96443</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81723</v>
+        <v>80479</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115044</v>
+        <v>113339</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1251475417598263</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.106046872930914</v>
+        <v>0.1044323255000884</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1492854358318165</v>
+        <v>0.1470720130891714</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>168</v>
@@ -8679,19 +8679,19 @@
         <v>136327</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>116328</v>
+        <v>118052</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>160748</v>
+        <v>160643</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0914751050256791</v>
+        <v>0.09147510502567908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07805542963093906</v>
+        <v>0.07921256091504573</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1078611081669383</v>
+        <v>0.1077910038569238</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>679803</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>664671</v>
+        <v>664697</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>692403</v>
+        <v>691007</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9445810216252889</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9235561728252581</v>
+        <v>0.9235915679309147</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9620886895273401</v>
+        <v>0.9601492587222977</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>827</v>
@@ -8729,19 +8729,19 @@
         <v>674191</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>655590</v>
+        <v>657295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>688911</v>
+        <v>690155</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8748524582401735</v>
+        <v>0.8748524582401737</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8507145641681836</v>
+        <v>0.8529279869108288</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.893953127069086</v>
+        <v>0.8955676744999116</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1389</v>
@@ -8750,19 +8750,19 @@
         <v>1353994</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1329573</v>
+        <v>1329678</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1373993</v>
+        <v>1372269</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9085248949743209</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8921388918330616</v>
+        <v>0.892208996143076</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.921944570369061</v>
+        <v>0.9207874390849543</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>31091</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22583</v>
+        <v>22130</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42257</v>
+        <v>41786</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03895702248832689</v>
+        <v>0.03895702248832688</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02829655547715432</v>
+        <v>0.02772908760463149</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05294911107530104</v>
+        <v>0.05235869477815896</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>102</v>
@@ -8875,19 +8875,19 @@
         <v>67710</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55447</v>
+        <v>54210</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80937</v>
+        <v>80353</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08157818523664301</v>
+        <v>0.08157818523664302</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06680307032707868</v>
+        <v>0.06531280183383804</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09751390976718281</v>
+        <v>0.09680956542004436</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>141</v>
@@ -8896,19 +8896,19 @@
         <v>98801</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>82511</v>
+        <v>83603</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>116287</v>
+        <v>117118</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06068559764708693</v>
+        <v>0.06068559764708692</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0506800486761398</v>
+        <v>0.05135053502621865</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07142576030055087</v>
+        <v>0.07193656753391718</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>766981</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>755815</v>
+        <v>756286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775489</v>
+        <v>775942</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9610429775116731</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9470508889246989</v>
+        <v>0.9476413052218411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9717034445228456</v>
+        <v>0.9722709123953684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>958</v>
@@ -8946,19 +8946,19 @@
         <v>762296</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>749069</v>
+        <v>749653</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>774559</v>
+        <v>775796</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.918421814763357</v>
+        <v>0.9184218147633572</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9024860902328171</v>
+        <v>0.9031904345799555</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9331969296729213</v>
+        <v>0.9346871981661616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1681</v>
@@ -8967,19 +8967,19 @@
         <v>1529277</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1511791</v>
+        <v>1510960</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1545567</v>
+        <v>1544475</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9393144023529131</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.928574239699449</v>
+        <v>0.9280634324660828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9493199513238602</v>
+        <v>0.9486494649737813</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>181771</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>157528</v>
+        <v>157246</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>210145</v>
+        <v>208480</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05147464840137173</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0446093266404025</v>
+        <v>0.04452955782502468</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05950962741388288</v>
+        <v>0.05903809616286451</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>654</v>
@@ -9092,19 +9092,19 @@
         <v>387229</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>358746</v>
+        <v>359712</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>421303</v>
+        <v>418812</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1037900395518137</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09615546920544037</v>
+        <v>0.09641463198344308</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1129229198503146</v>
+        <v>0.1122552625935198</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>875</v>
@@ -9113,19 +9113,19 @@
         <v>569001</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>530813</v>
+        <v>531726</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>607422</v>
+        <v>610826</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07835132561148776</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07309293661485501</v>
+        <v>0.07321867437972497</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08364195866866291</v>
+        <v>0.08411068898913487</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3349509</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3321135</v>
+        <v>3322800</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3373752</v>
+        <v>3374034</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9485253515986284</v>
+        <v>0.9485253515986282</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.940490372586117</v>
+        <v>0.9409619038371352</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9553906733595974</v>
+        <v>0.9554704421749753</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4703</v>
@@ -9163,19 +9163,19 @@
         <v>3343662</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3309588</v>
+        <v>3312079</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3372145</v>
+        <v>3371179</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8962099604481862</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8870770801496853</v>
+        <v>0.8877447374064799</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9038445307945595</v>
+        <v>0.903585368016557</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7856</v>
@@ -9184,19 +9184,19 @@
         <v>6693169</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6654748</v>
+        <v>6651344</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6731357</v>
+        <v>6730444</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9216486743885123</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9163580413313372</v>
+        <v>0.9158893110108651</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9269070633851452</v>
+        <v>0.9267813256202749</v>
       </c>
     </row>
     <row r="30">
